--- a/FASE 2/Reporte de Defectos.xlsx
+++ b/FASE 2/Reporte de Defectos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28224"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esenedusv-my.sharepoint.com/personal/20235794_esen_edu_sv/Documents/Universidad/Pruebas/SauceDemo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmmel\Downloads\Proyecto-PDS-BarbieFinanciera\FASE 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="11_C1C7AC6637B51DEBEF7A5EC861C426FF4AEAD2B0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7FDB969-E65A-4EA2-8AED-4C33A2F4E310}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7239DF-4832-4CDB-9F76-250AB1E428C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Defectos" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>ID del Defecto</t>
   </si>
@@ -74,6 +74,51 @@
   </si>
   <si>
     <t>Número total de defectos</t>
+  </si>
+  <si>
+    <t>Defectos mayores/medios</t>
+  </si>
+  <si>
+    <t>Defectos menores</t>
+  </si>
+  <si>
+    <t>Defectos resueltos</t>
+  </si>
+  <si>
+    <t>Defectos pendientes</t>
+  </si>
+  <si>
+    <t>DE001</t>
+  </si>
+  <si>
+    <t>DE002</t>
+  </si>
+  <si>
+    <t>El sistema permite guardar un presupuesto donde el monto asignado a una categoría de gasto excede el ingreso neto mensual, sin mostrar un error.</t>
+  </si>
+  <si>
+    <t>El sistema no muestra ninguna opción o botón para editar el monto en una categoría ya guardada en el presupuesto.</t>
+  </si>
+  <si>
+    <t>Módulo de Visualización y Edición de Presupuesto</t>
+  </si>
+  <si>
+    <t>Módulo de Asignación de Categorias de Gasto</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>En proceso</t>
+  </si>
+  <si>
+    <t>Melissa Torres</t>
+  </si>
+  <si>
+    <t>BF-0041  Creación de presupuesto personalizado. Como usuario de Barbie Financiera, quiero ingresar mis ingresos netos mensuales y asignar montos a categorías de gastos (alquiler, alimentación, entretenimiento, etc.) para crear un presupuesto personalizado que me ayude a gestionar mis finanzas de manera efectiva.</t>
   </si>
   <si>
     <r>
@@ -81,39 +126,20 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF535353"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <rFont val="Aptos"/>
         <family val="2"/>
       </rPr>
       <t>:</t>
     </r>
-  </si>
-  <si>
-    <t>Defectos mayores/medios</t>
-  </si>
-  <si>
-    <t>Defectos menores</t>
-  </si>
-  <si>
-    <t>Defectos resueltos</t>
-  </si>
-  <si>
-    <t>Defectos pendientes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -125,20 +151,35 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF535353"/>
-      <name val="Calibri"/>
+      <sz val="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF535353"/>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <name val="Aptos"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,8 +204,26 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -277,57 +336,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1461,80 +1547,120 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.26953125" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="12" width="16.28515625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="16.28515625" style="1"/>
+    <col min="1" max="1" width="16.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.453125" style="1" customWidth="1"/>
+    <col min="5" max="12" width="16.26953125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="16.26953125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="12.75">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" ht="12.75">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="14"/>
+    <row r="2" spans="1:11" ht="132.5" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="8">
+        <v>45546</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" ht="116">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="8">
+        <v>45546</v>
+      </c>
+      <c r="J3" s="10"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
+    <row r="4" spans="1:11" ht="20.149999999999999" customHeight="1">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -1545,9 +1671,9 @@
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
+    <row r="5" spans="1:11" ht="20.149999999999999" customHeight="1">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -1558,9 +1684,9 @@
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+    <row r="6" spans="1:11" ht="20.149999999999999" customHeight="1">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -1571,9 +1697,9 @@
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
+    <row r="7" spans="1:11" ht="20.149999999999999" customHeight="1">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -1584,9 +1710,9 @@
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
     </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
+    <row r="8" spans="1:11" ht="20.149999999999999" customHeight="1">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -1597,9 +1723,9 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
+    <row r="9" spans="1:11" ht="20.149999999999999" customHeight="1">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -1610,9 +1736,9 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
     </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
+    <row r="10" spans="1:11" ht="20.149999999999999" customHeight="1">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -1623,9 +1749,9 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
     </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
+    <row r="11" spans="1:11" ht="20.149999999999999" customHeight="1">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -1636,9 +1762,9 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
     </row>
-    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
+    <row r="12" spans="1:11" ht="20.149999999999999" customHeight="1">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -1649,9 +1775,9 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
     </row>
-    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
+    <row r="13" spans="1:11" ht="20.149999999999999" customHeight="1">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -1662,9 +1788,9 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
     </row>
-    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
+    <row r="14" spans="1:11" ht="20.149999999999999" customHeight="1">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -1675,9 +1801,9 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
     </row>
-    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
+    <row r="15" spans="1:11" ht="20.149999999999999" customHeight="1">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -1688,9 +1814,9 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
     </row>
-    <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
+    <row r="16" spans="1:11" ht="20.149999999999999" customHeight="1">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -1702,6 +1828,7 @@
       <c r="K16" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>
@@ -1712,51 +1839,84 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13.5">
-      <c r="A1" s="10"/>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:3" ht="13">
+      <c r="A1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" ht="13">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" ht="13">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="13">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="14.5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="13.5">
-      <c r="A2" s="10"/>
-      <c r="B2" s="12" t="s">
+      <c r="C5" s="14">
+        <f>2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.5">
+      <c r="A6" s="2"/>
+      <c r="B6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="17">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.5">
+      <c r="B7" s="16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="13.5">
-      <c r="A3" s="10"/>
-      <c r="B3" s="12" t="s">
+      <c r="C7" s="17">
+        <f>2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.5">
+      <c r="B8" s="16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="13.5">
-      <c r="A4" s="10"/>
-      <c r="B4" s="12" t="s">
+      <c r="C8" s="17">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.5">
+      <c r="B11" s="18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="13.5">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
+      <c r="C11" s="15">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.5">
+      <c r="B12" s="18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="13.5">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11" t="s">
-        <v>16</v>
+      <c r="C12" s="15">
+        <f>2</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1773,7 +1933,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
